--- a/Parsing_characteristis_and_photo/Мир Керамики 27.12.24_готово.xlsx
+++ b/Parsing_characteristis_and_photo/Мир Керамики 27.12.24_готово.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Parsing_characteristis_and_photo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Parsing_characteristis_and_photo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34491042-7642-47DB-8CF1-2DD5AEB97238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E2B513-FC92-4770-B962-9211B460655A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1544,6 +1544,9 @@
     <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1555,9 +1558,6 @@
     <xf numFmtId="1" fontId="12" fillId="4" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Ввод  2 3 2 2 2 41" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1918,7 +1918,7 @@
   <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B44"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3009,12 +3009,12 @@
       <c r="AJ39" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="AK39" s="113" t="s">
+      <c r="AK39" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="111"/>
-      <c r="AN39" s="112"/>
+      <c r="AL39" s="114"/>
+      <c r="AM39" s="114"/>
+      <c r="AN39" s="115"/>
       <c r="AO39" s="68"/>
       <c r="AP39" s="68"/>
     </row>
@@ -3079,15 +3079,15 @@
       <c r="AJ40" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="AK40" s="110" t="s">
+      <c r="AK40" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="AL40" s="111"/>
-      <c r="AM40" s="112"/>
-      <c r="AO40" s="114" t="s">
+      <c r="AL40" s="114"/>
+      <c r="AM40" s="115"/>
+      <c r="AO40" s="117" t="s">
         <v>189</v>
       </c>
-      <c r="AP40" s="112"/>
+      <c r="AP40" s="115"/>
     </row>
     <row r="41" spans="1:43" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30" t="s">
@@ -3318,10 +3318,10 @@
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="33"/>
-      <c r="E43" s="115" t="s">
+      <c r="E43" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="111" t="s">
         <v>244</v>
       </c>
       <c r="G43" s="88"/>
@@ -3369,10 +3369,10 @@
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="116" t="s">
+      <c r="F44" s="111" t="s">
         <v>245</v>
       </c>
       <c r="G44" s="34"/>
@@ -3414,122 +3414,122 @@
       <c r="AQ44" s="16"/>
     </row>
     <row r="45" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="115" t="s">
+      <c r="E45" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F45" s="116" t="s">
+      <c r="F45" s="111" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="115" t="s">
+      <c r="E46" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F46" s="116" t="s">
+      <c r="F46" s="111" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="115" t="s">
+      <c r="E47" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="116" t="s">
+      <c r="F47" s="111" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="115" t="s">
+      <c r="E48" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F48" s="116" t="s">
+      <c r="F48" s="111" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="49" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E49" s="115" t="s">
+      <c r="E49" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F49" s="116" t="s">
+      <c r="F49" s="111" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="50" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="115" t="s">
+      <c r="E50" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F50" s="116" t="s">
+      <c r="F50" s="111" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="51" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E51" s="115" t="s">
+      <c r="E51" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F51" s="116" t="s">
+      <c r="F51" s="111" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="52" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="115" t="s">
+      <c r="E52" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F52" s="116" t="s">
+      <c r="F52" s="111" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="53" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F53" s="116" t="s">
+      <c r="F53" s="111" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="54" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="115" t="s">
+      <c r="E54" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="F54" s="112" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="55" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="115" t="s">
+      <c r="E55" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F55" s="117" t="s">
+      <c r="F55" s="112" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="56" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="115" t="s">
+      <c r="E56" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F56" s="117" t="s">
+      <c r="F56" s="112" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="57" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E57" s="115" t="s">
+      <c r="E57" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F57" s="117" t="s">
+      <c r="F57" s="112" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="58" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E58" s="115" t="s">
+      <c r="E58" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F58" s="117" t="s">
+      <c r="F58" s="112" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="59" spans="5:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59" s="115" t="s">
+      <c r="E59" s="110" t="s">
         <v>243</v>
       </c>
-      <c r="F59" s="117" t="s">
+      <c r="F59" s="112" t="s">
         <v>260</v>
       </c>
     </row>
